--- a/HW02/TestResults.xlsx
+++ b/HW02/TestResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="460" windowWidth="22020" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="3640" yWindow="460" windowWidth="22020" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>"-2 Beta(1)"</t>
   </si>
@@ -362,15 +362,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -386,8 +386,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -410,7 +413,7 @@
         <v>3.687140000000011E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1.853497</v>
       </c>
@@ -418,7 +421,7 @@
         <v>1.746586</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1.8525579999999999</v>
       </c>
@@ -426,7 +429,7 @@
         <v>1.8197140000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1.8534489999999999</v>
       </c>
@@ -434,7 +437,7 @@
         <v>1.8508929999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1.8535649999999999</v>
       </c>
@@ -442,25 +445,51 @@
         <v>1.8196129999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="e">
+      <c r="B15">
+        <v>1.8732679999999999</v>
+      </c>
+      <c r="C15">
         <f>AVERAGE(B15:B25)</f>
-        <v>#DIV/0!</v>
+        <v>1.8639732499999999</v>
       </c>
       <c r="D15">
         <v>1.8742030000000001</v>
       </c>
       <c r="E15">
         <f>AVERAGE(D15:D25)</f>
-        <v>1.874239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.8599705</v>
+      </c>
+      <c r="F15">
+        <f>C15-E15</f>
+        <v>4.0027499999999439E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1.8329</v>
+      </c>
       <c r="D16">
         <v>1.8742749999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.8803719999999999</v>
+      </c>
+      <c r="D17">
+        <v>1.817326</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.869353</v>
+      </c>
+      <c r="D18">
+        <v>1.8740779999999999</v>
       </c>
     </row>
   </sheetData>
